--- a/datastatic/datasets/online/SDG3_Prevalence_of_obesity_WHO_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Prevalence_of_obesity_WHO_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="C_prevalence_of_obesity_WHO_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="C_prevalence_of_obesity_WHO_201" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/SDG3_Prevalence_of_obesity_WHO_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Prevalence_of_obesity_WHO_2014.xlsx
@@ -451,7 +451,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 

--- a/datastatic/datasets/online/SDG3_Prevalence_of_obesity_WHO_2014.xlsx
+++ b/datastatic/datasets/online/SDG3_Prevalence_of_obesity_WHO_2014.xlsx
@@ -451,7 +451,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
